--- a/public/Uploads/BSCS.xlsx
+++ b/public/Uploads/BSCS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -93,17 +93,17 @@
     <t>BSAF</t>
   </si>
   <si>
-    <t>hashirbaig@gmail.com</t>
-  </si>
-  <si>
-    <t>ahmadbilal07@live.com</t>
+    <t>nabeelbaghoor@gmail.com</t>
+  </si>
+  <si>
+    <t>l181097@lhr.nu.edu.pk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,10 +280,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,7 +314,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -491,16 +489,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,12 +539,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -579,12 +577,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -617,13 +615,13 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75">
       <c r="B4" s="1"/>
       <c r="G4" s="2"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75">
       <c r="B5" s="1"/>
       <c r="G5" s="2"/>
       <c r="I5" s="3"/>

--- a/public/Uploads/BSCS.xlsx
+++ b/public/Uploads/BSCS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -93,17 +93,17 @@
     <t>BSAF</t>
   </si>
   <si>
-    <t>nabeelbaghoor@gmail.com</t>
-  </si>
-  <si>
-    <t>l181097@lhr.nu.edu.pk</t>
+    <t>hashirbaig@gmail.com</t>
+  </si>
+  <si>
+    <t>ahmadbilal07@live.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,9 +280,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,6 +315,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,16 +491,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,12 +541,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -577,12 +579,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -615,13 +617,13 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="G4" s="2"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="G5" s="2"/>
       <c r="I5" s="3"/>
